--- a/com.supermarket/src/main/resources/ExcelFiles/InvalidLogin.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/InvalidLogin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswani\git\repository2\com.supermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301BC9F0-BA66-4860-ABF5-9D98E421CB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819BB8C-A8EC-4FA3-862A-E9ED1B75E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="SetOfInvalidLoginData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -34,16 +35,40 @@
   </si>
   <si>
     <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>pass3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -378,4 +403,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF9FA86-E4CC-4E2C-BF53-F99F1879F544}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>